--- a/yandex_search_as_of_2022_03_26.xlsx
+++ b/yandex_search_as_of_2022_03_26.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BKU\clementlefevre\workspace\private\telegram\data\yandex_searches\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2FDB3-7014-4ECB-90F5-9E01A86E7E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A998C3DB-C525-4AFA-A770-CE8138221718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0454CBA3-B7C4-41C8-9A5D-2E62C84E936B}"/>
   </bookViews>
@@ -4688,7 +4683,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7498,8 +7493,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20150,8 +20146,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
